--- a/data/female_conditioning/ovod1/block_1/rawdata_OvoD1_4-1.xlsx
+++ b/data/female_conditioning/ovod1/block_1/rawdata_OvoD1_4-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/female_conditioning/ovod1/block_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6237DD27-3934-0240-9BE7-890769E92C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B9F7767-EEEA-CE40-8772-FD4F9E8D7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D185678D-B91E-0345-831E-3B53A06776CB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{D185678D-B91E-0345-831E-3B53A06776CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
